--- a/班费情况.xlsx
+++ b/班费情况.xlsx
@@ -292,13 +292,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -609,7 +609,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -629,16 +629,18 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -649,7 +651,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
@@ -658,38 +660,44 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>100</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -698,62 +706,70 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -762,21 +778,23 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
@@ -785,7 +803,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
@@ -794,48 +812,54 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -844,18 +868,22 @@
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
